--- a/database/Error_Percent.xlsx
+++ b/database/Error_Percent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Documents\GitHub\Freshwater-Fish-Diet-Database\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F114C23F-0EE2-401F-908D-C3E3B7066E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01D4039-B45B-4851-8949-F33690ACFBB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14805" yWindow="4470" windowWidth="12630" windowHeight="11340" xr2:uid="{04F18045-E3B1-405C-A04D-933CF6ECB18A}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="13185" windowHeight="11340" xr2:uid="{04F18045-E3B1-405C-A04D-933CF6ECB18A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="137">
   <si>
     <t>Author_date_table</t>
   </si>
@@ -414,6 +414,36 @@
   </si>
   <si>
     <t>Sibbing_2001_tbl5</t>
+  </si>
+  <si>
+    <t>Moyle_1984_tbl14</t>
+  </si>
+  <si>
+    <t>Moyle_1984_tbl15</t>
+  </si>
+  <si>
+    <t>removed</t>
+  </si>
+  <si>
+    <t>Mikia_2018_tbl1</t>
+  </si>
+  <si>
+    <t>removed a total category</t>
+  </si>
+  <si>
+    <t>Perello_2015_tbl1</t>
+  </si>
+  <si>
+    <t>Whittaker_1977_tbl1</t>
+  </si>
+  <si>
+    <t>Whittaker_1977_tbl2</t>
+  </si>
+  <si>
+    <t>scan error</t>
+  </si>
+  <si>
+    <t>fixed and put back in</t>
   </si>
 </sst>
 </file>
@@ -771,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC4DAD0-6A26-425D-962C-C24AEBB52DE7}">
-  <dimension ref="A1:F408"/>
+  <dimension ref="A1:F406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="G214" sqref="G214"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226:E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4796,101 +4826,182 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>127</v>
+      </c>
+      <c r="D221" t="s">
+        <v>61</v>
+      </c>
+      <c r="E221" t="s">
+        <v>129</v>
+      </c>
       <c r="F221" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>128</v>
+      </c>
+      <c r="D222" t="s">
+        <v>61</v>
+      </c>
+      <c r="E222" t="s">
+        <v>129</v>
+      </c>
       <c r="F222" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>130</v>
+      </c>
+      <c r="C223">
+        <v>91</v>
+      </c>
+      <c r="D223" t="s">
+        <v>61</v>
+      </c>
+      <c r="E223" t="s">
+        <v>131</v>
+      </c>
       <c r="F223" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>132</v>
+      </c>
+      <c r="C224">
+        <v>74.2</v>
+      </c>
+      <c r="D224" t="s">
+        <v>108</v>
+      </c>
+      <c r="E224" t="s">
+        <v>63</v>
+      </c>
       <c r="F224" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>132</v>
+      </c>
+      <c r="C225">
+        <v>74.2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>108</v>
+      </c>
+      <c r="E225" t="s">
+        <v>63</v>
+      </c>
       <c r="F225" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>133</v>
+      </c>
+      <c r="D226" t="s">
+        <v>135</v>
+      </c>
+      <c r="E226" t="s">
+        <v>136</v>
+      </c>
       <c r="F226" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>134</v>
+      </c>
+      <c r="D227" t="s">
+        <v>135</v>
+      </c>
+      <c r="E227" t="s">
+        <v>136</v>
+      </c>
       <c r="F227" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="228" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>134</v>
+      </c>
+      <c r="D228" t="s">
+        <v>135</v>
+      </c>
+      <c r="E228" t="s">
+        <v>136</v>
+      </c>
       <c r="F228" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="229" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F229" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="230" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F230" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="231" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F231" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F232" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="233" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F233" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="234" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F234" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="235" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F235" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="236" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F236" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="237" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F237" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="238" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F238" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="239" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F239" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="240" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F240" t="s">
         <v>57</v>
       </c>
@@ -5722,16 +5833,6 @@
     </row>
     <row r="406" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F406" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="407" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F407" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="408" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F408" t="s">
         <v>57</v>
       </c>
     </row>
